--- a/tut05/output/0401EE06.xlsx
+++ b/tut05/output/0401EE06.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.612244897959184</v>
+        <v>7.61</v>
       </c>
       <c r="C6" t="n">
-        <v>6.568181818181818</v>
+        <v>6.57</v>
       </c>
       <c r="D6" t="n">
-        <v>7.695652173913044</v>
+        <v>7.7</v>
       </c>
       <c r="E6" t="n">
         <v>7.5</v>
       </c>
       <c r="F6" t="n">
-        <v>6.923076923076923</v>
+        <v>6.92</v>
       </c>
       <c r="G6" t="n">
-        <v>7.275</v>
+        <v>7.28</v>
       </c>
       <c r="H6" t="n">
-        <v>7.046511627906977</v>
+        <v>7.05</v>
       </c>
       <c r="I6" t="n">
-        <v>6.894736842105263</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.612244897959184</v>
+        <v>7.61</v>
       </c>
       <c r="C8" t="n">
-        <v>7.118279569892473</v>
+        <v>7.12</v>
       </c>
       <c r="D8" t="n">
-        <v>7.309352517985611</v>
+        <v>7.31</v>
       </c>
       <c r="E8" t="n">
-        <v>7.356756756756757</v>
+        <v>7.36</v>
       </c>
       <c r="F8" t="n">
-        <v>7.28125</v>
+        <v>7.28</v>
       </c>
       <c r="G8" t="n">
-        <v>7.28030303030303</v>
+        <v>7.28</v>
       </c>
       <c r="H8" t="n">
-        <v>7.247557003257329</v>
+        <v>7.25</v>
       </c>
       <c r="I8" t="n">
-        <v>7.208695652173913</v>
+        <v>7.21</v>
       </c>
     </row>
   </sheetData>
